--- a/data/trans_orig/P68-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P68-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE8FA1AA-2E72-470B-A2C4-83C5E7EE6A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A9054AE-6701-4765-851E-044222303453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FB5B180-30E2-45AE-826D-4084AAACDE9B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BDBFEC52-F8AF-4ED6-997C-63D02CD34B2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>29,68%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>24,88%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>70,32%</t>
   </si>
   <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>71,7%</t>
   </si>
   <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>25,78%</t>
   </si>
   <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>20,48%</t>
   </si>
   <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
   </si>
   <si>
     <t>74,22%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>79,52%</t>
   </si>
   <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
   </si>
   <si>
     <t>76,04%</t>
   </si>
   <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>18,28%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
   </si>
   <si>
     <t>80,18%</t>
   </si>
   <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
   </si>
   <si>
     <t>75,06%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
   </si>
   <si>
     <t>78,45%</t>
   </si>
   <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,73 +311,70 @@
     <t>31,94%</t>
   </si>
   <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
   </si>
   <si>
     <t>29,85%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
   </si>
   <si>
     <t>68,06%</t>
   </si>
   <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
   </si>
   <si>
     <t>72,9%</t>
   </si>
   <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>70,15%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
   </si>
   <si>
     <t>24,67%</t>
   </si>
   <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
   </si>
   <si>
     <t>22,97%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
+    <t>19,52%</t>
   </si>
   <si>
     <t>24,02%</t>
@@ -386,31 +383,28 @@
     <t>21,75%</t>
   </si>
   <si>
-    <t>26,38%</t>
+    <t>26,16%</t>
   </si>
   <si>
     <t>75,33%</t>
   </si>
   <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
   </si>
   <si>
     <t>77,03%</t>
   </si>
   <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
+    <t>80,48%</t>
   </si>
   <si>
     <t>75,98%</t>
   </si>
   <si>
-    <t>73,62%</t>
+    <t>73,84%</t>
   </si>
   <si>
     <t>78,25%</t>
@@ -419,109 +413,109 @@
     <t>14,57%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>80,28%</t>
   </si>
   <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>83,23%</t>
   </si>
   <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
   </si>
   <si>
     <t>22,77%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>23,12%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
   </si>
   <si>
     <t>77,23%</t>
   </si>
   <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>76,88%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2015 (Tasa respuesta: 35,32%)</t>
@@ -530,391 +524,367 @@
     <t>39,71%</t>
   </si>
   <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
   </si>
   <si>
     <t>60,29%</t>
   </si>
   <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>74,63%</t>
   </si>
   <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>22,51%</t>
   </si>
   <si>
-    <t>20,68%</t>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>24,5%</t>
   </si>
   <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
   </si>
   <si>
     <t>75,5%</t>
   </si>
   <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
+    <t>82,24%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
   </si>
   <si>
     <t>19,45%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,16%</t>
+    <t>22,08%</t>
   </si>
   <si>
     <t>26,88%</t>
@@ -923,19 +893,16 @@
     <t>21,65%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>23,13%</t>
   </si>
   <si>
     <t>80,55%</t>
   </si>
   <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
   </si>
   <si>
     <t>75,67%</t>
@@ -944,16 +911,13 @@
     <t>73,12%</t>
   </si>
   <si>
-    <t>77,84%</t>
+    <t>77,92%</t>
   </si>
   <si>
     <t>78,35%</t>
   </si>
   <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
+    <t>76,87%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF6C45F-E5FF-4FFF-8C98-E18196C2C82D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84958B0-B9E2-4ADD-A68C-23084C52E268}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1981,7 +1945,7 @@
         <v>665</v>
       </c>
       <c r="N13" s="7">
-        <v>692426</v>
+        <v>692427</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2083,7 +2047,7 @@
         <v>2792</v>
       </c>
       <c r="N15" s="7">
-        <v>2914898</v>
+        <v>2914899</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9057CD-DA05-4726-827D-3DD20B2ECF11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4E6400-02CF-4EC2-BC46-129620FB646C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2416,7 +2380,7 @@
         <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="M7" s="7">
         <v>336</v>
@@ -2425,13 +2389,13 @@
         <v>357209</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2410,13 @@
         <v>688887</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>415</v>
@@ -2461,13 +2425,13 @@
         <v>441301</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>1065</v>
@@ -2476,13 +2440,13 @@
         <v>1130188</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2514,13 @@
         <v>46089</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -2565,13 +2529,13 @@
         <v>46321</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -2580,13 +2544,13 @@
         <v>92410</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2565,13 @@
         <v>270168</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>168</v>
@@ -2616,13 +2580,13 @@
         <v>188576</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>411</v>
@@ -2631,13 +2595,13 @@
         <v>458744</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2669,13 @@
         <v>330493</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
@@ -2720,13 +2684,13 @@
         <v>215828</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>515</v>
@@ -2735,13 +2699,13 @@
         <v>546321</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2720,13 @@
         <v>1084307</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>677</v>
@@ -2771,13 +2735,13 @@
         <v>731919</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>1688</v>
@@ -2786,13 +2750,13 @@
         <v>1816226</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C755DE6F-DBD9-45FF-8DF3-72461FA5FA0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26B86EF-58D1-412B-8205-E3BC28ED363D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +2955,13 @@
         <v>55581</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -3006,13 +2970,13 @@
         <v>18024</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>69</v>
@@ -3021,13 +2985,13 @@
         <v>73605</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3006,13 @@
         <v>84386</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -3057,13 +3021,13 @@
         <v>53017</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>133</v>
@@ -3072,13 +3036,13 @@
         <v>137403</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3110,13 @@
         <v>229382</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
@@ -3161,28 +3125,28 @@
         <v>124565</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>336</v>
       </c>
       <c r="N7" s="7">
-        <v>353948</v>
+        <v>353947</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3161,13 @@
         <v>690976</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>515</v>
@@ -3212,13 +3176,13 @@
         <v>527213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>1162</v>
@@ -3227,13 +3191,13 @@
         <v>1218188</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,7 +3239,7 @@
         <v>1498</v>
       </c>
       <c r="N9" s="7">
-        <v>1572136</v>
+        <v>1572135</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3301,13 +3265,13 @@
         <v>63528</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -3316,13 +3280,13 @@
         <v>73708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
@@ -3331,13 +3295,13 @@
         <v>137236</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3316,13 @@
         <v>283086</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -3367,13 +3331,13 @@
         <v>231670</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>490</v>
@@ -3382,13 +3346,13 @@
         <v>514756</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3420,13 @@
         <v>348491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -3471,13 +3435,13 @@
         <v>216298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>528</v>
@@ -3486,13 +3450,13 @@
         <v>564788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3471,13 @@
         <v>1058447</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>797</v>
@@ -3522,13 +3486,13 @@
         <v>811899</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>1785</v>
@@ -3537,13 +3501,13 @@
         <v>1870348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB952DB-5851-4660-8BD3-233CFF711531}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1A967A-840B-43BE-9B53-103D378FBC89}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3706,13 @@
         <v>30480</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -3757,13 +3721,13 @@
         <v>28994</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -3772,13 +3736,13 @@
         <v>59474</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3757,13 @@
         <v>103718</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -3808,13 +3772,13 @@
         <v>60332</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>194</v>
@@ -3823,13 +3787,13 @@
         <v>164049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3861,13 @@
         <v>249350</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>307</v>
@@ -3912,13 +3876,13 @@
         <v>233961</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>546</v>
@@ -3927,13 +3891,13 @@
         <v>483311</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3912,13 @@
         <v>963744</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>935</v>
@@ -3963,13 +3927,13 @@
         <v>690682</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>1776</v>
@@ -3978,13 +3942,13 @@
         <v>1654426</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4016,13 @@
         <v>71817</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>131</v>
@@ -4067,13 +4031,13 @@
         <v>98096</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>194</v>
@@ -4082,13 +4046,13 @@
         <v>169913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4067,13 @@
         <v>388894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>517</v>
@@ -4118,13 +4082,13 @@
         <v>372055</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>885</v>
@@ -4133,13 +4097,13 @@
         <v>760949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4171,13 @@
         <v>351646</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>473</v>
@@ -4222,28 +4186,28 @@
         <v>361052</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>810</v>
       </c>
       <c r="N13" s="7">
-        <v>712698</v>
+        <v>712697</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4222,13 @@
         <v>1456357</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>1539</v>
@@ -4273,13 +4237,13 @@
         <v>1123068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>2855</v>
@@ -4288,13 +4252,13 @@
         <v>2579425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,7 +4300,7 @@
         <v>3665</v>
       </c>
       <c r="N15" s="7">
-        <v>3292123</v>
+        <v>3292122</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P68-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P68-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A9054AE-6701-4765-851E-044222303453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F2E99D4-D9D0-43D8-9D7F-DAAF9A5097C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BDBFEC52-F8AF-4ED6-997C-63D02CD34B2A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DBD5AA2D-CE5D-4E0E-B9A4-09675D5AE280}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="287">
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>29,68%</t>
   </si>
   <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>24,88%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>70,32%</t>
   </si>
   <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>71,7%</t>
   </si>
   <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,664 +140,646 @@
     <t>25,78%</t>
   </si>
   <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
   </si>
   <si>
     <t>20,48%</t>
   </si>
   <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>21,9%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
   </si>
   <si>
     <t>26,15%</t>
   </si>
   <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>73,85%</t>
   </si>
   <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2016 (Tasa respuesta: 35,32%)</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>22,41%</t>
   </si>
   <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>77,59%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>79,45%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2015 (Tasa respuesta: 35,32%)</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
   </si>
   <si>
     <t>76,72%</t>
@@ -1329,7 +1311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84958B0-B9E2-4ADD-A68C-23084C52E268}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F78B98D-E31B-4F47-9C86-1FD1BA9C5D6F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1945,7 +1927,7 @@
         <v>665</v>
       </c>
       <c r="N13" s="7">
-        <v>692427</v>
+        <v>692426</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2047,7 +2029,7 @@
         <v>2792</v>
       </c>
       <c r="N15" s="7">
-        <v>2914899</v>
+        <v>2914898</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2080,7 +2062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4E6400-02CF-4EC2-BC46-129620FB646C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E694E1-E1AB-4425-BBD4-4DD96754420B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2380,7 +2362,7 @@
         <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>336</v>
@@ -2389,13 +2371,13 @@
         <v>357209</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2392,13 @@
         <v>688887</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>415</v>
@@ -2425,13 +2407,13 @@
         <v>441301</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>1065</v>
@@ -2440,13 +2422,13 @@
         <v>1130188</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2496,13 @@
         <v>46089</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -2529,13 +2511,13 @@
         <v>46321</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -2544,13 +2526,13 @@
         <v>92410</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,10 +2565,10 @@
         <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>411</v>
@@ -2595,13 +2577,13 @@
         <v>458744</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2651,13 @@
         <v>330493</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
@@ -2684,13 +2666,13 @@
         <v>215828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>515</v>
@@ -2699,13 +2681,13 @@
         <v>546321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2702,13 @@
         <v>1084307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>677</v>
@@ -2735,13 +2717,13 @@
         <v>731919</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>1688</v>
@@ -2750,13 +2732,13 @@
         <v>1816226</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26B86EF-58D1-412B-8205-E3BC28ED363D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283019CB-86EF-49C6-9438-292FFC612866}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,7 +2830,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2955,13 +2937,13 @@
         <v>55581</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -2970,13 +2952,13 @@
         <v>18024</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>69</v>
@@ -2985,13 +2967,13 @@
         <v>73605</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +2988,13 @@
         <v>84386</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -3021,13 +3003,13 @@
         <v>53017</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>133</v>
@@ -3036,13 +3018,13 @@
         <v>137403</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,10 +3095,10 @@
         <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
@@ -3125,28 +3107,28 @@
         <v>124565</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>336</v>
       </c>
       <c r="N7" s="7">
-        <v>353947</v>
+        <v>353948</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,10 +3146,10 @@
         <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="H8" s="7">
         <v>515</v>
@@ -3176,13 +3158,13 @@
         <v>527213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>1162</v>
@@ -3191,13 +3173,13 @@
         <v>1218188</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,7 +3221,7 @@
         <v>1498</v>
       </c>
       <c r="N9" s="7">
-        <v>1572135</v>
+        <v>1572136</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3265,13 +3247,13 @@
         <v>63528</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -3280,13 +3262,13 @@
         <v>73708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
@@ -3295,13 +3277,13 @@
         <v>137236</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3298,13 @@
         <v>283086</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -3331,13 +3313,13 @@
         <v>231670</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>490</v>
@@ -3346,13 +3328,13 @@
         <v>514756</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3402,13 @@
         <v>348491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -3435,13 +3417,13 @@
         <v>216298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>528</v>
@@ -3450,13 +3432,13 @@
         <v>564788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3453,13 @@
         <v>1058447</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>797</v>
@@ -3486,13 +3468,13 @@
         <v>811899</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>1785</v>
@@ -3501,13 +3483,13 @@
         <v>1870348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1A967A-840B-43BE-9B53-103D378FBC89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C67955-5BC1-4155-B0DC-DD3E96359C1C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3581,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3706,13 +3688,13 @@
         <v>30480</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -3721,13 +3703,13 @@
         <v>28994</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -3736,13 +3718,13 @@
         <v>59474</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3739,13 @@
         <v>103718</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -3772,13 +3754,13 @@
         <v>60332</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>194</v>
@@ -3787,13 +3769,13 @@
         <v>164049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3843,13 @@
         <v>249350</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>307</v>
@@ -3876,13 +3858,13 @@
         <v>233961</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>546</v>
@@ -3891,13 +3873,13 @@
         <v>483311</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3894,13 @@
         <v>963744</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>935</v>
@@ -3927,13 +3909,13 @@
         <v>690682</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>1776</v>
@@ -3942,13 +3924,13 @@
         <v>1654426</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +3998,13 @@
         <v>71817</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>131</v>
@@ -4031,13 +4013,13 @@
         <v>98096</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>194</v>
@@ -4046,13 +4028,13 @@
         <v>169913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4049,13 @@
         <v>388894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>517</v>
@@ -4082,13 +4064,13 @@
         <v>372055</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>885</v>
@@ -4097,13 +4079,13 @@
         <v>760949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4153,13 @@
         <v>351646</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>473</v>
@@ -4186,13 +4168,13 @@
         <v>361052</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>810</v>
@@ -4201,13 +4183,13 @@
         <v>712697</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4204,13 @@
         <v>1456357</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>1539</v>
@@ -4237,13 +4219,13 @@
         <v>1123068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>2855</v>
@@ -4252,13 +4234,13 @@
         <v>2579425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P68-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P68-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F2E99D4-D9D0-43D8-9D7F-DAAF9A5097C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9EFFF1C-49A8-41C9-9928-8C9433DBF5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DBD5AA2D-CE5D-4E0E-B9A4-09675D5AE280}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0F454C9-F4E3-431A-AD49-43796BB18C85}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>29,68%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
   </si>
   <si>
     <t>24,88%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>70,32%</t>
   </si>
   <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
   </si>
   <si>
     <t>71,7%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,766 +140,820 @@
     <t>25,78%</t>
   </si>
   <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2016 (Tasa respuesta: 35,32%)</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>76,61%</t>
   </si>
   <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2016 (Tasa respuesta: 35,32%)</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>79,95%</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F78B98D-E31B-4F47-9C86-1FD1BA9C5D6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A04BB60-5FED-4822-B6D6-98B25961141E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2062,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E694E1-E1AB-4425-BBD4-4DD96754420B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6039F7-39D1-448F-A2BE-9DC0ADE84395}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2517,7 +2571,7 @@
         <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -2526,13 +2580,13 @@
         <v>92410</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,13 +2601,13 @@
         <v>270168</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>168</v>
@@ -2562,13 +2616,13 @@
         <v>188576</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>411</v>
@@ -2577,13 +2631,13 @@
         <v>458744</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2705,13 @@
         <v>330493</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
@@ -2666,13 +2720,13 @@
         <v>215828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>515</v>
@@ -2681,13 +2735,13 @@
         <v>546321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2756,13 @@
         <v>1084307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>677</v>
@@ -2717,13 +2771,13 @@
         <v>731919</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>1688</v>
@@ -2732,13 +2786,13 @@
         <v>1816226</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283019CB-86EF-49C6-9438-292FFC612866}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B5DE24-513B-4489-9841-2C8BEF0D910B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2830,7 +2884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2937,13 +2991,13 @@
         <v>55581</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -2952,13 +3006,13 @@
         <v>18024</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>69</v>
@@ -2967,13 +3021,13 @@
         <v>73605</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +3042,13 @@
         <v>84386</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -3003,13 +3057,13 @@
         <v>53017</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>133</v>
@@ -3018,13 +3072,13 @@
         <v>137403</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3146,13 @@
         <v>229382</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
@@ -3107,13 +3161,13 @@
         <v>124565</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>336</v>
@@ -3122,13 +3176,13 @@
         <v>353948</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3197,13 @@
         <v>690976</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>515</v>
@@ -3158,13 +3212,13 @@
         <v>527213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>1162</v>
@@ -3173,13 +3227,13 @@
         <v>1218188</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3301,13 @@
         <v>63528</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -3262,13 +3316,13 @@
         <v>73708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
@@ -3277,13 +3331,13 @@
         <v>137236</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3352,13 @@
         <v>283086</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -3313,13 +3367,13 @@
         <v>231670</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>490</v>
@@ -3328,13 +3382,13 @@
         <v>514756</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3456,13 @@
         <v>348491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -3417,13 +3471,13 @@
         <v>216298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>528</v>
@@ -3432,13 +3486,13 @@
         <v>564788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3507,13 @@
         <v>1058447</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>797</v>
@@ -3468,13 +3522,13 @@
         <v>811899</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>1785</v>
@@ -3483,13 +3537,13 @@
         <v>1870348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C67955-5BC1-4155-B0DC-DD3E96359C1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E6A394-E731-403F-9E3A-96B5FDDC9690}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3581,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3688,13 +3742,13 @@
         <v>30480</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -3703,13 +3757,13 @@
         <v>28994</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -3718,13 +3772,13 @@
         <v>59474</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3793,13 @@
         <v>103718</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -3754,13 +3808,13 @@
         <v>60332</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>194</v>
@@ -3769,13 +3823,13 @@
         <v>164049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3897,13 @@
         <v>249350</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>307</v>
@@ -3858,13 +3912,13 @@
         <v>233961</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>546</v>
@@ -3873,13 +3927,13 @@
         <v>483311</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3948,13 @@
         <v>963744</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>935</v>
@@ -3909,13 +3963,13 @@
         <v>690682</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>1776</v>
@@ -3924,13 +3978,13 @@
         <v>1654426</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +4052,13 @@
         <v>71817</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>131</v>
@@ -4013,13 +4067,13 @@
         <v>98096</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>194</v>
@@ -4028,13 +4082,13 @@
         <v>169913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4103,13 @@
         <v>388894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>517</v>
@@ -4064,13 +4118,13 @@
         <v>372055</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>885</v>
@@ -4079,13 +4133,13 @@
         <v>760949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4207,13 @@
         <v>351646</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>473</v>
@@ -4168,28 +4222,28 @@
         <v>361052</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>810</v>
       </c>
       <c r="N13" s="7">
-        <v>712697</v>
+        <v>712698</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4258,13 @@
         <v>1456357</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>1539</v>
@@ -4219,13 +4273,13 @@
         <v>1123068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>2855</v>
@@ -4234,13 +4288,13 @@
         <v>2579425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4336,7 @@
         <v>3665</v>
       </c>
       <c r="N15" s="7">
-        <v>3292122</v>
+        <v>3292123</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P68-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P68-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9EFFF1C-49A8-41C9-9928-8C9433DBF5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B079EE6-D9AC-4681-B8F6-973E4BF02F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0F454C9-F4E3-431A-AD49-43796BB18C85}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{11C6AFF2-E019-49D0-A91F-ADEC33295052}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -746,214 +746,202 @@
     <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A04BB60-5FED-4822-B6D6-98B25961141E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD457AED-EBAE-4E4B-B8C8-F070CEA667CB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1981,7 +1969,7 @@
         <v>665</v>
       </c>
       <c r="N13" s="7">
-        <v>692426</v>
+        <v>692427</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2083,7 +2071,7 @@
         <v>2792</v>
       </c>
       <c r="N15" s="7">
-        <v>2914898</v>
+        <v>2914899</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6039F7-39D1-448F-A2BE-9DC0ADE84395}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9282197A-D409-4BDD-AC3C-009AF9AC5561}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2443,7 +2431,7 @@
         <v>650</v>
       </c>
       <c r="D8" s="7">
-        <v>688887</v>
+        <v>688888</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2494,7 +2482,7 @@
         <v>866</v>
       </c>
       <c r="D9" s="7">
-        <v>914524</v>
+        <v>914525</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2867,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B5DE24-513B-4489-9841-2C8BEF0D910B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ED9981-5CC9-414F-B5EF-EDD113B21D36}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3173,7 +3161,7 @@
         <v>336</v>
       </c>
       <c r="N7" s="7">
-        <v>353948</v>
+        <v>353947</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>186</v>
@@ -3194,7 +3182,7 @@
         <v>647</v>
       </c>
       <c r="D8" s="7">
-        <v>690976</v>
+        <v>690975</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>189</v>
@@ -3245,7 +3233,7 @@
         <v>861</v>
       </c>
       <c r="D9" s="7">
-        <v>920358</v>
+        <v>920357</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3275,7 +3263,7 @@
         <v>1498</v>
       </c>
       <c r="N9" s="7">
-        <v>1572136</v>
+        <v>1572135</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3504,7 +3492,7 @@
         <v>988</v>
       </c>
       <c r="D14" s="7">
-        <v>1058447</v>
+        <v>1058448</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>225</v>
@@ -3555,7 +3543,7 @@
         <v>1309</v>
       </c>
       <c r="D15" s="7">
-        <v>1406938</v>
+        <v>1406939</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3618,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E6A394-E731-403F-9E3A-96B5FDDC9690}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA263B88-073A-43F3-9767-66D237D4E153}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3739,7 +3727,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>30480</v>
+        <v>29214</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>235</v>
@@ -3754,7 +3742,7 @@
         <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>28994</v>
+        <v>24986</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>238</v>
@@ -3769,16 +3757,16 @@
         <v>70</v>
       </c>
       <c r="N4" s="7">
-        <v>59474</v>
+        <v>54200</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,46 +3778,46 @@
         <v>107</v>
       </c>
       <c r="D5" s="7">
-        <v>103718</v>
+        <v>102889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
       </c>
       <c r="I5" s="7">
-        <v>60332</v>
+        <v>55623</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>194</v>
       </c>
       <c r="N5" s="7">
-        <v>164049</v>
+        <v>158512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3829,7 @@
         <v>142</v>
       </c>
       <c r="D6" s="7">
-        <v>134198</v>
+        <v>132103</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3844,7 @@
         <v>122</v>
       </c>
       <c r="I6" s="7">
-        <v>89326</v>
+        <v>80609</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3871,7 +3859,7 @@
         <v>264</v>
       </c>
       <c r="N6" s="7">
-        <v>223523</v>
+        <v>212712</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3894,46 +3882,46 @@
         <v>239</v>
       </c>
       <c r="D7" s="7">
-        <v>249350</v>
+        <v>239580</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>307</v>
       </c>
       <c r="I7" s="7">
-        <v>233961</v>
+        <v>238368</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>546</v>
       </c>
       <c r="N7" s="7">
-        <v>483311</v>
+        <v>477948</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,7 +3933,7 @@
         <v>841</v>
       </c>
       <c r="D8" s="7">
-        <v>963744</v>
+        <v>1119874</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>260</v>
@@ -3960,31 +3948,31 @@
         <v>935</v>
       </c>
       <c r="I8" s="7">
-        <v>690682</v>
+        <v>689878</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>1776</v>
       </c>
       <c r="N8" s="7">
-        <v>1654426</v>
+        <v>1809752</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +3984,7 @@
         <v>1080</v>
       </c>
       <c r="D9" s="7">
-        <v>1213094</v>
+        <v>1359454</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4011,7 +3999,7 @@
         <v>1242</v>
       </c>
       <c r="I9" s="7">
-        <v>924643</v>
+        <v>928246</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4026,7 +4014,7 @@
         <v>2322</v>
       </c>
       <c r="N9" s="7">
-        <v>2137737</v>
+        <v>2287700</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4049,46 +4037,46 @@
         <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>71817</v>
+        <v>69526</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>131</v>
       </c>
       <c r="I10" s="7">
-        <v>98096</v>
+        <v>90695</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>194</v>
       </c>
       <c r="N10" s="7">
-        <v>169913</v>
+        <v>160221</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,46 +4088,46 @@
         <v>368</v>
       </c>
       <c r="D11" s="7">
-        <v>388894</v>
+        <v>375926</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>517</v>
       </c>
       <c r="I11" s="7">
-        <v>372055</v>
+        <v>345619</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>885</v>
       </c>
       <c r="N11" s="7">
-        <v>760949</v>
+        <v>721545</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,7 +4139,7 @@
         <v>431</v>
       </c>
       <c r="D12" s="7">
-        <v>460711</v>
+        <v>445452</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4166,7 +4154,7 @@
         <v>648</v>
       </c>
       <c r="I12" s="7">
-        <v>470151</v>
+        <v>436314</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4181,7 +4169,7 @@
         <v>1079</v>
       </c>
       <c r="N12" s="7">
-        <v>930862</v>
+        <v>881766</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4204,46 +4192,46 @@
         <v>337</v>
       </c>
       <c r="D13" s="7">
-        <v>351646</v>
+        <v>338320</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>473</v>
       </c>
       <c r="I13" s="7">
-        <v>361052</v>
+        <v>354049</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>810</v>
       </c>
       <c r="N13" s="7">
-        <v>712698</v>
+        <v>692369</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,46 +4243,46 @@
         <v>1316</v>
       </c>
       <c r="D14" s="7">
-        <v>1456357</v>
+        <v>1598688</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>1539</v>
       </c>
       <c r="I14" s="7">
-        <v>1123068</v>
+        <v>1091121</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>2855</v>
       </c>
       <c r="N14" s="7">
-        <v>2579425</v>
+        <v>2689809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4294,7 @@
         <v>1653</v>
       </c>
       <c r="D15" s="7">
-        <v>1808003</v>
+        <v>1937008</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4321,7 +4309,7 @@
         <v>2012</v>
       </c>
       <c r="I15" s="7">
-        <v>1484120</v>
+        <v>1445170</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4324,7 @@
         <v>3665</v>
       </c>
       <c r="N15" s="7">
-        <v>3292123</v>
+        <v>3382178</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
